--- a/expense/汇总表.xlsx
+++ b/expense/汇总表.xlsx
@@ -11,6 +11,10 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -990,6 +994,44 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>698</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>2100.63</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1282,7 +1324,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
@@ -1334,12 +1376,14 @@
         <v>8</v>
       </c>
       <c r="C2" s="7">
+        <f>[2]Sheet1!K3</f>
         <v>2100.63</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="7">
+        <f>[1]Sheet1!K3</f>
         <v>698</v>
       </c>
       <c r="F2" s="6"/>

--- a/expense/汇总表.xlsx
+++ b/expense/汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21540" windowHeight="8820"/>
+    <workbookView windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,13 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>气垫组</t>
   </si>
@@ -35,6 +34,9 @@
   </si>
   <si>
     <t>支出单号</t>
+  </si>
+  <si>
+    <t>2024-06-09</t>
   </si>
   <si>
     <t>2024-04-16</t>
@@ -66,10 +68,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -80,6 +82,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -88,21 +98,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -110,8 +180,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,24 +198,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,82 +225,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -251,25 +253,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,7 +409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,145 +427,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,6 +630,60 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,60 +714,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -725,152 +727,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -898,10 +900,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -935,6 +937,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1012,25 +1017,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>2100.63</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
+      <sheetName val="各队报销情况统计"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1040,6 +1027,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1335,14 +1323,14 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.425" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="13.75" customWidth="1"/>
   </cols>
@@ -1360,7 +1348,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="20"/>
     </row>
-    <row r="2" ht="14.25" spans="1:7">
+    <row r="2" spans="1:7">
       <c r="A2" s="3"/>
       <c r="B2" s="6" t="s">
         <v>2</v>
@@ -1388,18 +1376,17 @@
       </c>
       <c r="C3" s="9">
         <f>[1]Sheet1!K3</f>
-        <v>2100.63</v>
+        <v>2528.14</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="9">
-        <f>[2]Sheet1!K3</f>
+        <v>6</v>
+      </c>
+      <c r="F3" s="22">
         <v>698</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>6</v>
+      <c r="G3" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1409,7 +1396,7 @@
       <c r="D4" s="13"/>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3"/>
@@ -1418,15 +1405,15 @@
       <c r="D5" s="13"/>
       <c r="E5" s="11"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="23"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A6" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="15">
         <f>SUM(C3:C5)</f>
-        <v>2100.63</v>
+        <v>2528.14</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="17"/>
@@ -1435,27 +1422,27 @@
         <v>698</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="24"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1465,6 +1452,10 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="E6:F6"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" display="698"/>
+    <hyperlink ref="C3" r:id="rId2" display="='/[汇总表.xlsx]Sheet1'!K3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/expense/汇总表.xlsx
+++ b/expense/汇总表.xlsx
@@ -16,13 +16,14 @@
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>总额</t>
   </si>
@@ -51,6 +52,9 @@
     <t>小计</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>绿色</t>
   </si>
   <si>
@@ -82,6 +86,9 @@
   </si>
   <si>
     <t>视觉组</t>
+  </si>
+  <si>
+    <t>2024-08-07</t>
   </si>
   <si>
     <t>独轮组</t>
@@ -104,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -148,6 +155,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -155,11 +170,95 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,100 +270,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,181 +310,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,6 +561,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -573,6 +595,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -603,177 +640,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -783,7 +790,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -805,9 +812,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -829,13 +833,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -922,17 +920,15 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
-      <sheetName val="各队报销情况统计"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>2528.14</v>
+        <row r="80">
+          <cell r="K80">
+            <v>3959.6</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -962,6 +958,27 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
+      <sheetName val="各队报销情况统计"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>2528.14</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -976,7 +993,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1282,10 +1299,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1294,301 +1311,316 @@
     <col min="3" max="3" width="8.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.56666666666667" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.6333333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="10" max="10" width="13.75" customWidth="1"/>
+    <col min="6" max="7" width="4.56666666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.6333333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="11" max="11" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:7">
+    <row r="1" ht="14.25" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4">
         <f>SUM(E4:E21)</f>
-        <v>10693.14</v>
-      </c>
-      <c r="G1" t="s">
+        <v>14652.74</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="7:8">
-      <c r="G2" s="18" t="s">
+    <row r="2" spans="8:9">
+      <c r="H2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="F3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="8" t="s">
+      <c r="I3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="21">
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="18">
         <f>SUM(C4:C5)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="23"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="J4" s="2"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="20"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="13">
-        <f>[1]Sheet1!K3</f>
+      <c r="B6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="12">
+        <f>[3]Sheet1!K3</f>
         <v>2528.14</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="21">
+      <c r="D6" s="10"/>
+      <c r="E6" s="18">
         <f>SUM(C6:C7)</f>
         <v>2528.14</v>
       </c>
-      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="15">
+      <c r="B8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="12">
         <f>[2]Sheet1!K3</f>
         <v>698</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="21">
+      <c r="D8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="18">
         <f>SUM(C8:C9)</f>
         <v>698</v>
       </c>
-      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="21">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="18">
         <f>SUM(C10:C11)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="21">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="18">
         <f>SUM(C12:C13)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="21"/>
-      <c r="H13" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="18"/>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="21">
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="12">
+        <f>[1]Sheet1!K80</f>
+        <v>3959.6</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="18">
         <f>SUM(C14:C15)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="1"/>
+        <v>3959.6</v>
+      </c>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="21"/>
-      <c r="H15" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="18"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="15">
-        <f>[3]Sheet1!K2</f>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="12">
+        <f>[4]Sheet1!K2</f>
         <v>4946</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="21">
+      <c r="D16" s="10"/>
+      <c r="E16" s="18">
         <f>SUM(C16:C17)</f>
         <v>4946</v>
       </c>
-      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="15">
-        <f>[4]Sheet1!K3</f>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="12">
+        <f>[5]Sheet1!K3</f>
         <v>2521</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="21">
+      <c r="D18" s="10"/>
+      <c r="E18" s="18">
         <f>SUM(C18:C19)</f>
         <v>2521</v>
       </c>
-      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="21">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="18">
         <f>SUM(C20:C21)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -1616,6 +1648,7 @@
     <hyperlink ref="C18" r:id="rId2" display="='/home/xhao/repositories/smartcar_2024/expense/摩托组/2024-08-04/[汇总表.xlsx]Sheet1'!K3"/>
     <hyperlink ref="C8" r:id="rId3" display="='/home/xhao/repositories/smartcar_2024/expense/模型组/2024-04-16/[汇总表.xlsx]Sheet1'!K3"/>
     <hyperlink ref="C16" r:id="rId4" display="='/home/xhao/repositories/smartcar_2024/expense/独轮组/2024-06-18/[汇总表.xlsx]Sheet1'!K2"/>
+    <hyperlink ref="C14" r:id="rId5" display="='/home/xhao/repositories/smartcar_2024/expense/视觉组/2024-08-07/[汇总表.xlsx]Sheet1'!K80"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/expense/汇总表.xlsx
+++ b/expense/汇总表.xlsx
@@ -13,10 +13,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
@@ -111,10 +107,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -170,16 +166,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,70 +214,55 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,6 +306,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -322,169 +324,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,21 +581,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -611,17 +592,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,147 +610,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -925,85 +921,7 @@
       <sheetData sheetId="0">
         <row r="80">
           <cell r="K80">
-            <v>3959.6</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>698</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="各队报销情况统计"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>2528.14</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="K2">
-            <v>4946</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>2521</v>
+            <v>3858.01</v>
           </cell>
         </row>
       </sheetData>
@@ -1301,8 +1219,8 @@
   <sheetPr/>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1323,7 +1241,7 @@
       </c>
       <c r="B1" s="4">
         <f>SUM(E4:E21)</f>
-        <v>14652.74</v>
+        <v>14551.15</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -1396,7 +1314,6 @@
         <v>14</v>
       </c>
       <c r="C6" s="12">
-        <f>[3]Sheet1!K3</f>
         <v>2528.14</v>
       </c>
       <c r="D6" s="10"/>
@@ -1429,7 +1346,6 @@
         <v>16</v>
       </c>
       <c r="C8" s="12">
-        <f>[2]Sheet1!K3</f>
         <v>698</v>
       </c>
       <c r="D8" s="14" t="s">
@@ -1515,12 +1431,12 @@
       </c>
       <c r="C14" s="12">
         <f>[1]Sheet1!K80</f>
-        <v>3959.6</v>
+        <v>3858.01</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="18">
         <f>SUM(C14:C15)</f>
-        <v>3959.6</v>
+        <v>3858.01</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1542,7 +1458,6 @@
         <v>23</v>
       </c>
       <c r="C16" s="12">
-        <f>[4]Sheet1!K2</f>
         <v>4946</v>
       </c>
       <c r="D16" s="10"/>
@@ -1573,7 +1488,6 @@
         <v>25</v>
       </c>
       <c r="C18" s="12">
-        <f>[5]Sheet1!K3</f>
         <v>2521</v>
       </c>
       <c r="D18" s="10"/>
@@ -1644,10 +1558,10 @@
     <mergeCell ref="E20:E21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="='/home/xhao/repositories/smartcar_2024/expense/气垫组/2024-06-09/[汇总表.xlsx]Sheet1'!K3"/>
-    <hyperlink ref="C18" r:id="rId2" display="='/home/xhao/repositories/smartcar_2024/expense/摩托组/2024-08-04/[汇总表.xlsx]Sheet1'!K3"/>
-    <hyperlink ref="C8" r:id="rId3" display="='/home/xhao/repositories/smartcar_2024/expense/模型组/2024-04-16/[汇总表.xlsx]Sheet1'!K3"/>
-    <hyperlink ref="C16" r:id="rId4" display="='/home/xhao/repositories/smartcar_2024/expense/独轮组/2024-06-18/[汇总表.xlsx]Sheet1'!K2"/>
+    <hyperlink ref="C6" r:id="rId1" display="2528.14"/>
+    <hyperlink ref="C18" r:id="rId2" display="2521"/>
+    <hyperlink ref="C8" r:id="rId3" display="698"/>
+    <hyperlink ref="C16" r:id="rId4" display="4946"/>
     <hyperlink ref="C14" r:id="rId5" display="='/home/xhao/repositories/smartcar_2024/expense/视觉组/2024-08-07/[汇总表.xlsx]Sheet1'!K80"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/expense/汇总表.xlsx
+++ b/expense/汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12645"/>
+    <workbookView windowWidth="28800" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>总额</t>
   </si>
@@ -79,6 +80,9 @@
   </si>
   <si>
     <t>镜头组</t>
+  </si>
+  <si>
+    <t>2024-08-26</t>
   </si>
   <si>
     <t>视觉组</t>
@@ -107,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -138,14 +142,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,14 +196,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,15 +233,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,9 +247,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,62 +270,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,19 +310,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,25 +430,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,127 +460,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,7 +556,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,15 +576,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -591,6 +586,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -613,6 +623,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -621,172 +640,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -830,6 +834,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -922,6 +929,25 @@
         <row r="80">
           <cell r="K80">
             <v>3858.01</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="I3">
+            <v>4320.98</v>
           </cell>
         </row>
       </sheetData>
@@ -1219,8 +1245,8 @@
   <sheetPr/>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1241,17 +1267,17 @@
       </c>
       <c r="B1" s="4">
         <f>SUM(E4:E21)</f>
-        <v>14551.15</v>
+        <v>18872.13</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="8:9">
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="16" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1268,16 +1294,16 @@
       <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1288,7 +1314,7 @@
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="18">
+      <c r="E4" s="19">
         <f>SUM(C4:C5)</f>
         <v>0</v>
       </c>
@@ -1300,11 +1326,11 @@
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="20"/>
+      <c r="K5" s="21"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="7" t="s">
@@ -1317,7 +1343,7 @@
         <v>2528.14</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="18">
+      <c r="E6" s="19">
         <f>SUM(C6:C7)</f>
         <v>2528.14</v>
       </c>
@@ -1330,13 +1356,13 @@
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="7" t="s">
@@ -1351,7 +1377,7 @@
       <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="19">
         <f>SUM(C8:C9)</f>
         <v>698</v>
       </c>
@@ -1364,13 +1390,13 @@
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="7" t="s">
@@ -1379,7 +1405,7 @@
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="18">
+      <c r="E10" s="19">
         <f>SUM(C10:C11)</f>
         <v>0</v>
       </c>
@@ -1392,23 +1418,28 @@
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="15">
+        <f>[2]Sheet1!I3</f>
+        <v>4320.98</v>
+      </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="18">
+      <c r="E12" s="19">
         <f>SUM(C12:C13)</f>
-        <v>0</v>
+        <v>4320.98</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1418,23 +1449,23 @@
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="18"/>
+      <c r="E13" s="19"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="12">
         <f>[1]Sheet1!K80</f>
         <v>3858.01</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="18">
+      <c r="E14" s="19">
         <f>SUM(C14:C15)</f>
         <v>3858.01</v>
       </c>
@@ -1446,22 +1477,22 @@
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="18"/>
+      <c r="E15" s="19"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="12">
         <v>4946</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="18">
+      <c r="E16" s="19">
         <f>SUM(C16:C17)</f>
         <v>4946</v>
       </c>
@@ -1473,25 +1504,25 @@
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="12">
         <v>2521</v>
       </c>
       <c r="D18" s="10"/>
-      <c r="E18" s="18">
+      <c r="E18" s="19">
         <f>SUM(C18:C19)</f>
         <v>2521</v>
       </c>
@@ -1503,21 +1534,21 @@
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
-      <c r="E20" s="18">
+      <c r="E20" s="19">
         <f>SUM(C20:C21)</f>
         <v>0</v>
       </c>
@@ -1529,12 +1560,12 @@
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -1562,7 +1593,8 @@
     <hyperlink ref="C18" r:id="rId2" display="2521"/>
     <hyperlink ref="C8" r:id="rId3" display="698"/>
     <hyperlink ref="C16" r:id="rId4" display="4946"/>
-    <hyperlink ref="C14" r:id="rId5" display="='/home/xhao/repositories/smartcar_2024/expense/视觉组/2024-08-07/[汇总表.xlsx]Sheet1'!K80"/>
+    <hyperlink ref="C14" r:id="rId5" display="='/[汇总表.xlsx]Sheet1'!K80"/>
+    <hyperlink ref="C12" r:id="rId6" display="='/home/xhao/repositories/smartcar_2024/expense/镜头组/2024-08-26/[汇总表.xlsx]Sheet1'!I3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/expense/汇总表.xlsx
+++ b/expense/汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13050"/>
+    <workbookView windowWidth="28800" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>总额</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>越野组</t>
+  </si>
+  <si>
+    <t>2024-08-29</t>
   </si>
   <si>
     <t>镜头组</t>
@@ -111,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -142,39 +145,115 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,82 +265,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -271,7 +274,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,187 +307,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,7 +559,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,6 +609,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -625,17 +639,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -645,152 +648,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -816,7 +819,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -824,9 +827,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -834,9 +834,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -946,8 +943,8 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="I3">
-            <v>4320.98</v>
+          <cell r="J3">
+            <v>6639.93</v>
           </cell>
         </row>
       </sheetData>
@@ -1246,7 +1243,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1267,17 +1264,17 @@
       </c>
       <c r="B1" s="4">
         <f>SUM(E4:E21)</f>
-        <v>18872.13</v>
+        <v>25512.06</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="8:9">
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1294,16 +1291,16 @@
       <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="16" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1314,7 +1311,7 @@
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="19">
+      <c r="E4" s="17">
         <f>SUM(C4:C5)</f>
         <v>0</v>
       </c>
@@ -1326,24 +1323,24 @@
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="21"/>
+      <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>2528.14</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="19">
+      <c r="E6" s="17">
         <f>SUM(C6:C7)</f>
         <v>2528.14</v>
       </c>
@@ -1355,29 +1352,29 @@
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>698</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="17">
         <f>SUM(C8:C9)</f>
         <v>698</v>
       </c>
@@ -1389,25 +1386,30 @@
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9">
+        <f>[2]Sheet1!J3</f>
+        <v>6639.93</v>
+      </c>
       <c r="D10" s="10"/>
-      <c r="E10" s="19">
+      <c r="E10" s="17">
         <f>SUM(C10:C11)</f>
-        <v>0</v>
+        <v>6639.93</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1418,26 +1420,25 @@
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="15">
-        <f>[2]Sheet1!I3</f>
+        <v>21</v>
+      </c>
+      <c r="C12" s="11">
         <v>4320.98</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="19">
+      <c r="E12" s="17">
         <f>SUM(C12:C13)</f>
         <v>4320.98</v>
       </c>
@@ -1449,23 +1450,23 @@
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="19"/>
+      <c r="E13" s="17"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="12">
+        <v>23</v>
+      </c>
+      <c r="C14" s="11">
         <f>[1]Sheet1!K80</f>
         <v>3858.01</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="19">
+      <c r="E14" s="17">
         <f>SUM(C14:C15)</f>
         <v>3858.01</v>
       </c>
@@ -1477,22 +1478,22 @@
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="19"/>
+      <c r="E15" s="17"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="12">
+      <c r="B16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="11">
         <v>4946</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="19">
+      <c r="E16" s="17">
         <f>SUM(C16:C17)</f>
         <v>4946</v>
       </c>
@@ -1503,26 +1504,26 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="12">
+      <c r="B18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="11">
         <v>2521</v>
       </c>
       <c r="D18" s="10"/>
-      <c r="E18" s="19">
+      <c r="E18" s="17">
         <f>SUM(C18:C19)</f>
         <v>2521</v>
       </c>
@@ -1533,22 +1534,22 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
-      <c r="E20" s="19">
+      <c r="E20" s="17">
         <f>SUM(C20:C21)</f>
         <v>0</v>
       </c>
@@ -1560,12 +1561,12 @@
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -1594,7 +1595,7 @@
     <hyperlink ref="C8" r:id="rId3" display="698"/>
     <hyperlink ref="C16" r:id="rId4" display="4946"/>
     <hyperlink ref="C14" r:id="rId5" display="='/[汇总表.xlsx]Sheet1'!K80"/>
-    <hyperlink ref="C12" r:id="rId6" display="='/home/xhao/repositories/smartcar_2024/expense/镜头组/2024-08-26/[汇总表.xlsx]Sheet1'!I3"/>
+    <hyperlink ref="C12" r:id="rId6" display="4320.98"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/expense/汇总表.xlsx
+++ b/expense/汇总表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>总额</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>电磁组</t>
+  </si>
+  <si>
+    <t>国赛</t>
+  </si>
+  <si>
+    <t>分区赛</t>
   </si>
 </sst>
 </file>
@@ -114,9 +120,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -145,7 +151,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,28 +159,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,72 +172,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,7 +197,29 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -274,7 +227,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,13 +313,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,7 +445,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,157 +463,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,24 +552,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -575,6 +563,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,17 +617,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -638,8 +635,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,94 +654,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -744,56 +750,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -836,6 +842,12 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -844,9 +856,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -920,6 +929,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
+      <sheetName val="各队报销情况统计"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -929,6 +939,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -944,7 +955,7 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="J3">
-            <v>6639.93</v>
+            <v>15201.68</v>
           </cell>
         </row>
       </sheetData>
@@ -1240,10 +1251,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1263,18 +1274,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="4">
-        <f>SUM(E4:E21)</f>
-        <v>25512.06</v>
+        <f>SUM(E4:E25)</f>
+        <v>44499.79</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="8:9">
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="16" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1291,16 +1302,16 @@
       <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1309,11 +1320,13 @@
         <v>12</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
+      <c r="C4" s="9">
+        <v>3786.05</v>
+      </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
         <f>SUM(C4:C5)</f>
-        <v>0</v>
+        <v>3786.05</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="1"/>
@@ -1323,11 +1336,11 @@
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="19"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="7" t="s">
@@ -1340,7 +1353,7 @@
         <v>2528.14</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="17">
+      <c r="E6" s="15">
         <f>SUM(C6:C7)</f>
         <v>2528.14</v>
       </c>
@@ -1353,13 +1366,13 @@
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="7" t="s">
@@ -1374,7 +1387,7 @@
       <c r="D8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="15">
         <f>SUM(C8:C9)</f>
         <v>698</v>
       </c>
@@ -1387,13 +1400,13 @@
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="7" t="s">
@@ -1403,11 +1416,10 @@
         <v>19</v>
       </c>
       <c r="C10" s="9">
-        <f>[2]Sheet1!J3</f>
         <v>6639.93</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="E10" s="17">
+      <c r="E10" s="15">
         <f>SUM(C10:C11)</f>
         <v>6639.93</v>
       </c>
@@ -1420,12 +1432,12 @@
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="7" t="s">
@@ -1438,7 +1450,7 @@
         <v>4320.98</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="17">
+      <c r="E12" s="15">
         <f>SUM(C12:C13)</f>
         <v>4320.98</v>
       </c>
@@ -1450,7 +1462,7 @@
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="17"/>
+      <c r="E13" s="15"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
@@ -1466,7 +1478,7 @@
         <v>3858.01</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="17">
+      <c r="E14" s="15">
         <f>SUM(C14:C15)</f>
         <v>3858.01</v>
       </c>
@@ -1478,7 +1490,7 @@
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="17"/>
+      <c r="E15" s="15"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
@@ -1493,7 +1505,7 @@
         <v>4946</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="17">
+      <c r="E16" s="15">
         <f>SUM(C16:C17)</f>
         <v>4946</v>
       </c>
@@ -1505,12 +1517,12 @@
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="7" t="s">
@@ -1523,7 +1535,7 @@
         <v>2521</v>
       </c>
       <c r="D18" s="10"/>
-      <c r="E18" s="17">
+      <c r="E18" s="15">
         <f>SUM(C18:C19)</f>
         <v>2521</v>
       </c>
@@ -1535,12 +1547,12 @@
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="7" t="s">
@@ -1549,7 +1561,7 @@
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
-      <c r="E20" s="17">
+      <c r="E20" s="15">
         <f>SUM(C20:C21)</f>
         <v>0</v>
       </c>
@@ -1561,15 +1573,56 @@
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15">
+        <f>[2]Sheet1!J3</f>
+        <v>15201.68</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="15">
+        <f>SUM(C22:C23)</f>
+        <v>15201.68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="7"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="15">
+        <f>SUM(C24:C25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="7"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="22">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
@@ -1579,6 +1632,8 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E8:E9"/>
@@ -1588,6 +1643,8 @@
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" display="2528.14"/>

--- a/expense/汇总表.xlsx
+++ b/expense/汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12645"/>
+    <workbookView windowWidth="28800" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,13 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>总额</t>
   </si>
@@ -61,12 +60,18 @@
     <t>实验室</t>
   </si>
   <si>
+    <t>202428026658</t>
+  </si>
+  <si>
     <t>气垫组</t>
   </si>
   <si>
     <t>2024-06-09</t>
   </si>
   <si>
+    <t>202428025936</t>
+  </si>
+  <si>
     <t>模型组</t>
   </si>
   <si>
@@ -82,30 +87,45 @@
     <t>2024-08-29</t>
   </si>
   <si>
+    <t>202428026767</t>
+  </si>
+  <si>
     <t>镜头组</t>
   </si>
   <si>
     <t>2024-08-26</t>
   </si>
   <si>
+    <t>./分区赛/[汇总表.xlsx]Sheet1'!I3</t>
+  </si>
+  <si>
     <t>视觉组</t>
   </si>
   <si>
     <t>2024-08-07</t>
   </si>
   <si>
+    <t>202428026769</t>
+  </si>
+  <si>
     <t>独轮组</t>
   </si>
   <si>
     <t>2024-06-18</t>
   </si>
   <si>
+    <t>202428026632</t>
+  </si>
+  <si>
     <t>摩托组</t>
   </si>
   <si>
     <t>2024-08-04</t>
   </si>
   <si>
+    <t>202428025929</t>
+  </si>
+  <si>
     <t>电磁组</t>
   </si>
   <si>
@@ -113,6 +133,9 @@
   </si>
   <si>
     <t>分区赛</t>
+  </si>
+  <si>
+    <t>202428026669</t>
   </si>
 </sst>
 </file>
@@ -121,9 +144,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -151,6 +174,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -159,6 +189,37 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,14 +233,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -189,47 +242,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,13 +273,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -273,14 +282,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,6 +342,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -331,169 +360,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,17 +575,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,11 +606,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,20 +658,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,85 +677,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -741,7 +764,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,52 +773,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -827,27 +850,27 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -862,6 +885,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -929,6 +961,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
+      <sheetName val="Sheet"/>
       <sheetName val="各队报销情况统计"/>
     </sheetNames>
     <sheetDataSet>
@@ -939,26 +972,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="J3">
-            <v>15201.68</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1254,14 +1269,14 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.4166666666667" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.375" style="2" customWidth="1"/>
     <col min="6" max="7" width="4.56666666666667" style="2" customWidth="1"/>
     <col min="8" max="8" width="16.6333333333333" style="2" customWidth="1"/>
@@ -1275,7 +1290,7 @@
       </c>
       <c r="B1" s="4">
         <f>SUM(E4:E25)</f>
-        <v>44499.79</v>
+        <v>53176.18</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -1323,8 +1338,10 @@
       <c r="C4" s="9">
         <v>3786.05</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="15">
+      <c r="D4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="12">
         <f>SUM(C4:C5)</f>
         <v>3786.05</v>
       </c>
@@ -1334,9 +1351,9 @@
     <row r="5" spans="1:11">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="15"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="J5" s="2"/>
@@ -1344,16 +1361,18 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="11">
+        <v>15</v>
+      </c>
+      <c r="C6" s="9">
         <v>2528.14</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="15">
+      <c r="D6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="12">
         <f>SUM(C6:C7)</f>
         <v>2528.14</v>
       </c>
@@ -1364,9 +1383,9 @@
     <row r="7" spans="1:11">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="15"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
@@ -1376,18 +1395,18 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="11">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9">
         <v>698</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="15">
+        <v>19</v>
+      </c>
+      <c r="E8" s="12">
         <f>SUM(C8:C9)</f>
         <v>698</v>
       </c>
@@ -1398,9 +1417,9 @@
     <row r="9" spans="1:11">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="15"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
@@ -1410,16 +1429,18 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="9">
         <v>6639.93</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="15">
+      <c r="D10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="12">
         <f>SUM(C10:C11)</f>
         <v>6639.93</v>
       </c>
@@ -1430,9 +1451,9 @@
     <row r="11" spans="1:10">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="15"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -1441,44 +1462,55 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="11">
+        <v>24</v>
+      </c>
+      <c r="C12" s="9">
         <v>4320.98</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="15">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12">
         <f>SUM(C12:C13)</f>
         <v>4320.98</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="H12" s="19">
+        <v>441.39</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="15"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="H13" s="19" t="e">
+        <f ca="1">EVALUATE(I12)</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="11">
+        <v>27</v>
+      </c>
+      <c r="C14" s="9">
         <f>[1]Sheet1!K80</f>
         <v>3858.01</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="15">
+      <c r="D14" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="12">
         <f>SUM(C14:C15)</f>
         <v>3858.01</v>
       </c>
@@ -1488,24 +1520,27 @@
     <row r="15" spans="1:10">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="15"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="11">
+        <v>30</v>
+      </c>
+      <c r="C16" s="9">
         <v>4946</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="15">
+      <c r="D16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="12">
         <f>SUM(C16:C17)</f>
         <v>4946</v>
       </c>
@@ -1515,9 +1550,9 @@
     <row r="17" spans="1:10">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="15"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
@@ -1526,16 +1561,18 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="11">
+        <v>33</v>
+      </c>
+      <c r="C18" s="9">
         <v>2521</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="15">
+      <c r="D18" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="12">
         <f>SUM(C18:C19)</f>
         <v>2521</v>
       </c>
@@ -1545,9 +1582,9 @@
     <row r="19" spans="1:10">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="15"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
@@ -1556,14 +1593,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="15">
+      <c r="C20" s="11">
+        <v>8235</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12">
         <f>SUM(C20:C21)</f>
-        <v>0</v>
+        <v>8235</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1571,9 +1610,9 @@
     <row r="21" spans="1:10">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="15"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
@@ -1582,44 +1621,47 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15">
-        <f>[2]Sheet1!J3</f>
+        <v>36</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="14">
         <v>15201.68</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="15">
+      <c r="D22" s="12"/>
+      <c r="E22" s="12">
         <f>SUM(C22:C23)</f>
         <v>15201.68</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="7"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="15">
+        <v>37</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="14">
+        <v>441.39</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="12">
         <f>SUM(C24:C25)</f>
-        <v>0</v>
+        <v>441.39</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="7"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -1653,6 +1695,10 @@
     <hyperlink ref="C16" r:id="rId4" display="4946"/>
     <hyperlink ref="C14" r:id="rId5" display="='/[汇总表.xlsx]Sheet1'!K80"/>
     <hyperlink ref="C12" r:id="rId6" display="4320.98"/>
+    <hyperlink ref="C10" r:id="rId7" display="6639.93"/>
+    <hyperlink ref="C4" r:id="rId8" display="3786.05"/>
+    <hyperlink ref="C22" r:id="rId9" display="15201.68"/>
+    <hyperlink ref="C24" r:id="rId10" display="441.39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/expense/汇总表.xlsx
+++ b/expense/汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12600"/>
+    <workbookView windowWidth="28800" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>总额</t>
   </si>
@@ -63,6 +64,9 @@
     <t>202428026658</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>气垫组</t>
   </si>
   <si>
@@ -127,6 +131,9 @@
   </si>
   <si>
     <t>电磁组</t>
+  </si>
+  <si>
+    <t>经费缺口</t>
   </si>
   <si>
     <t>国赛</t>
@@ -143,9 +150,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -173,6 +180,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -181,6 +196,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -188,7 +232,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,49 +293,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,51 +310,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,73 +343,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,109 +517,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,17 +593,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -604,11 +600,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,21 +625,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -658,17 +645,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,22 +684,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,125 +711,125 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -866,6 +873,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="41" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -974,6 +984,25 @@
       </sheetData>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="97">
+          <cell r="I97">
+            <v>8241.18</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1268,8 +1297,8 @@
   <sheetPr/>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1290,17 +1319,17 @@
       </c>
       <c r="B1" s="4">
         <f>SUM(E4:E25)</f>
-        <v>53176.18</v>
+        <v>53182.36</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="8:9">
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1317,16 +1346,16 @@
       <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1344,6 +1373,9 @@
       <c r="E4" s="12">
         <f>SUM(C4:C5)</f>
         <v>3786.05</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="1"/>
@@ -1354,27 +1386,38 @@
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20">
+        <f>SUM(E4,E6,E8,E10,E14,E16,E18)+1046.86+1317.3</f>
+        <v>27341.29</v>
+      </c>
+      <c r="I5">
+        <f>30000-H5</f>
+        <v>2658.71</v>
+      </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="20"/>
+      <c r="K5" s="21"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="9">
         <v>2528.14</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="12">
         <f>SUM(C6:C7)</f>
         <v>2528.14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1386,29 +1429,32 @@
       <c r="C7" s="11"/>
       <c r="D7" s="14"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="9">
         <v>698</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="12">
         <f>SUM(C8:C9)</f>
         <v>698</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1420,29 +1466,32 @@
       <c r="C9" s="11"/>
       <c r="D9" s="14"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="9">
         <v>6639.93</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>22</v>
+      <c r="D10" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="E10" s="12">
         <f>SUM(C10:C11)</f>
         <v>6639.93</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1454,18 +1503,18 @@
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="9">
         <v>4320.98</v>
@@ -1475,11 +1524,11 @@
         <f>SUM(C12:C13)</f>
         <v>4320.98</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="20">
         <v>441.39</v>
       </c>
-      <c r="I12" s="22" t="s">
-        <v>25</v>
+      <c r="I12" s="23" t="s">
+        <v>26</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -1489,7 +1538,7 @@
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
-      <c r="H13" s="19" t="e">
+      <c r="H13" s="20" t="e">
         <f ca="1">EVALUATE(I12)</f>
         <v>#VALUE!</v>
       </c>
@@ -1498,21 +1547,24 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="9">
         <f>[1]Sheet1!K80</f>
         <v>3858.01</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>28</v>
+      <c r="D14" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="E14" s="12">
         <f>SUM(C14:C15)</f>
         <v>3858.01</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1523,26 +1575,30 @@
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
-      <c r="H15" s="19"/>
+      <c r="F15" s="2"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="9">
         <v>4946</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16" s="12">
         <f>SUM(C16:C17)</f>
         <v>4946</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1553,28 +1609,31 @@
       <c r="C17" s="11"/>
       <c r="D17" s="14"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="9">
         <v>2521</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" s="12">
         <f>SUM(C18:C19)</f>
         <v>2521</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1585,24 +1644,25 @@
       <c r="C19" s="11"/>
       <c r="D19" s="14"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="11">
-        <v>8235</v>
+      <c r="C20" s="15">
+        <f>[2]Sheet1!I97</f>
+        <v>8241.18</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12">
         <f>SUM(C20:C21)</f>
-        <v>8235</v>
+        <v>8241.18</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1613,17 +1673,19 @@
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="15"/>
+        <v>38</v>
+      </c>
+      <c r="B22" s="16"/>
       <c r="C22" s="14">
         <v>15201.68</v>
       </c>
@@ -1632,24 +1694,28 @@
         <f>SUM(C22:C23)</f>
         <v>15201.68</v>
       </c>
+      <c r="H22" s="20">
+        <f>SUM(C12,C20,C22,C24)-2658.71</f>
+        <v>25546.52</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="7"/>
-      <c r="B23" s="15"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="15"/>
+        <v>39</v>
+      </c>
+      <c r="B24" s="16"/>
       <c r="C24" s="14">
         <v>441.39</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E24" s="12">
         <f>SUM(C24:C25)</f>
@@ -1658,13 +1724,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="7"/>
-      <c r="B25" s="15"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="29">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
@@ -1687,6 +1753,13 @@
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" display="2528.14"/>
@@ -1699,6 +1772,7 @@
     <hyperlink ref="C4" r:id="rId8" display="3786.05"/>
     <hyperlink ref="C22" r:id="rId9" display="15201.68"/>
     <hyperlink ref="C24" r:id="rId10" display="441.39"/>
+    <hyperlink ref="C20" r:id="rId11" display="='/home/xhao/repositories/smartcar_2024/expense/电磁组/2024-09-21/[汇总表.xlsx]Sheet1'!I97"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/expense/汇总表.xlsx
+++ b/expense/汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12645"/>
+    <workbookView windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,13 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>总额</t>
   </si>
@@ -64,18 +63,21 @@
     <t>202428026658</t>
   </si>
   <si>
+    <t>已收到</t>
+  </si>
+  <si>
+    <t>气垫组</t>
+  </si>
+  <si>
+    <t>2024-06-09</t>
+  </si>
+  <si>
+    <t>202428025936</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
-    <t>气垫组</t>
-  </si>
-  <si>
-    <t>2024-06-09</t>
-  </si>
-  <si>
-    <t>202428025936</t>
-  </si>
-  <si>
     <t>模型组</t>
   </si>
   <si>
@@ -83,6 +85,9 @@
   </si>
   <si>
     <t>202428013873</t>
+  </si>
+  <si>
+    <t>队长已确认全部收到</t>
   </si>
   <si>
     <t>越野组</t>
@@ -150,10 +155,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -188,8 +193,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,6 +216,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -217,22 +276,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,23 +301,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,38 +315,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -343,49 +348,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,7 +492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,31 +504,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,85 +522,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,9 +589,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,6 +603,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,6 +646,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -648,34 +679,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,152 +689,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -889,6 +894,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -984,25 +992,6 @@
       </sheetData>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="97">
-          <cell r="I97">
-            <v>8241.18</v>
-          </cell>
-        </row>
-      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1297,8 +1286,8 @@
   <sheetPr/>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1307,7 +1296,8 @@
     <col min="3" max="3" width="8.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.4166666666667" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="4.56666666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.8833333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="4.56666666666667" style="2" customWidth="1"/>
     <col min="8" max="8" width="16.6333333333333" style="2" customWidth="1"/>
     <col min="9" max="9" width="17.125" customWidth="1"/>
     <col min="11" max="11" width="13.75" customWidth="1"/>
@@ -1374,7 +1364,7 @@
         <f>SUM(C4:C5)</f>
         <v>3786.05</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="20" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="2"/>
@@ -1386,9 +1376,9 @@
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20">
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21">
         <f>SUM(E4,E6,E8,E10,E14,E16,E18)+1046.86+1317.3</f>
         <v>27341.29</v>
       </c>
@@ -1397,7 +1387,7 @@
         <v>2658.71</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="21"/>
+      <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="7" t="s">
@@ -1417,7 +1407,7 @@
         <v>2528.14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1429,32 +1419,31 @@
       <c r="C7" s="11"/>
       <c r="D7" s="14"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="9">
         <v>698</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="12">
         <f>SUM(C8:C9)</f>
         <v>698</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
+      <c r="F8" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1466,32 +1455,32 @@
       <c r="C9" s="11"/>
       <c r="D9" s="14"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="9">
         <v>6639.93</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>23</v>
+      <c r="D10" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="E10" s="12">
         <f>SUM(C10:C11)</f>
         <v>6639.93</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1503,18 +1492,17 @@
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" s="9">
         <v>4320.98</v>
@@ -1524,11 +1512,11 @@
         <f>SUM(C12:C13)</f>
         <v>4320.98</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="21">
         <v>441.39</v>
       </c>
-      <c r="I12" s="23" t="s">
-        <v>26</v>
+      <c r="I12" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -1538,7 +1526,7 @@
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
-      <c r="H13" s="20" t="e">
+      <c r="H13" s="21" t="e">
         <f ca="1">EVALUATE(I12)</f>
         <v>#VALUE!</v>
       </c>
@@ -1547,24 +1535,24 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="9">
         <f>[1]Sheet1!K80</f>
         <v>3858.01</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>29</v>
+      <c r="D14" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="E14" s="12">
         <f>SUM(C14:C15)</f>
         <v>3858.01</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1575,30 +1563,29 @@
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="2"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="21"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="9">
         <v>4946</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16" s="12">
         <f>SUM(C16:C17)</f>
         <v>4946</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1609,31 +1596,30 @@
       <c r="C17" s="11"/>
       <c r="D17" s="14"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" s="9">
         <v>2521</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E18" s="12">
         <f>SUM(C18:C19)</f>
         <v>2521</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1644,19 +1630,17 @@
       <c r="C19" s="11"/>
       <c r="D19" s="14"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="15">
-        <f>[2]Sheet1!I97</f>
         <v>8241.18</v>
       </c>
       <c r="D20" s="12"/>
@@ -1673,17 +1657,17 @@
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="14">
@@ -1694,7 +1678,7 @@
         <f>SUM(C22:C23)</f>
         <v>15201.68</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="21">
         <f>SUM(C12,C20,C22,C24)-2658.71</f>
         <v>25546.52</v>
       </c>
@@ -1708,14 +1692,14 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="14">
         <v>441.39</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E24" s="12">
         <f>SUM(C24:C25)</f>
@@ -1772,7 +1756,7 @@
     <hyperlink ref="C4" r:id="rId8" display="3786.05"/>
     <hyperlink ref="C22" r:id="rId9" display="15201.68"/>
     <hyperlink ref="C24" r:id="rId10" display="441.39"/>
-    <hyperlink ref="C20" r:id="rId11" display="='/home/xhao/repositories/smartcar_2024/expense/电磁组/2024-09-21/[汇总表.xlsx]Sheet1'!I97"/>
+    <hyperlink ref="C20" r:id="rId11" display="8241.18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/expense/汇总表.xlsx
+++ b/expense/汇总表.xlsx
@@ -155,10 +155,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -195,6 +195,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -203,6 +210,52 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,37 +271,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,14 +293,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,43 +320,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -354,181 +354,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,26 +589,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -646,17 +626,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,11 +670,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,148 +689,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1287,7 +1287,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F9"/>
+      <selection activeCell="F10" sqref="F10:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1479,8 +1479,8 @@
         <f>SUM(C10:C11)</f>
         <v>6639.93</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>18</v>
+      <c r="F10" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1492,6 +1492,7 @@
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="22"/>

--- a/expense/汇总表.xlsx
+++ b/expense/汇总表.xlsx
@@ -1287,7 +1287,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F11"/>
+      <selection activeCell="F14" sqref="F14:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1552,8 +1552,8 @@
         <f>SUM(C14:C15)</f>
         <v>3858.01</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>18</v>
+      <c r="F14" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1564,6 +1564,7 @@
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
+      <c r="F15" s="20"/>
       <c r="H15" s="21"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>

--- a/expense/汇总表.xlsx
+++ b/expense/汇总表.xlsx
@@ -1286,8 +1286,8 @@
   <sheetPr/>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F15"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1620,8 +1620,8 @@
         <f>SUM(C18:C19)</f>
         <v>2521</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>18</v>
+      <c r="F18" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1632,6 +1632,7 @@
       <c r="C19" s="11"/>
       <c r="D19" s="14"/>
       <c r="E19" s="12"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="22"/>

--- a/expense/汇总表.xlsx
+++ b/expense/汇总表.xlsx
@@ -1287,7 +1287,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:F19"/>
+      <selection activeCell="F16" sqref="F16:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1586,8 +1586,8 @@
         <f>SUM(C16:C17)</f>
         <v>4946</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>18</v>
+      <c r="F16" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1598,6 +1598,7 @@
       <c r="C17" s="11"/>
       <c r="D17" s="14"/>
       <c r="E17" s="12"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="22"/>

--- a/expense/汇总表.xlsx
+++ b/expense/汇总表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>总额</t>
   </si>
@@ -75,7 +75,7 @@
     <t>202428025936</t>
   </si>
   <si>
-    <t>x</t>
+    <t>队长已确认全部收到</t>
   </si>
   <si>
     <t>模型组</t>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>202428013873</t>
-  </si>
-  <si>
-    <t>队长已确认全部收到</t>
   </si>
   <si>
     <t>越野组</t>
@@ -1286,8 +1283,8 @@
   <sheetPr/>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F17"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1406,7 +1403,7 @@
         <f>SUM(C6:C7)</f>
         <v>2528.14</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="1"/>
@@ -1419,6 +1416,7 @@
       <c r="C7" s="11"/>
       <c r="D7" s="14"/>
       <c r="E7" s="12"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="22"/>
@@ -1443,7 +1441,7 @@
         <v>698</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1464,23 +1462,23 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="C10" s="9">
         <v>6639.93</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="12">
         <f>SUM(C10:C11)</f>
         <v>6639.93</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1500,10 +1498,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="C12" s="9">
         <v>4320.98</v>
@@ -1517,7 +1515,7 @@
         <v>441.39</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -1536,24 +1534,24 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="C14" s="9">
         <f>[1]Sheet1!K80</f>
         <v>3858.01</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="12">
         <f>SUM(C14:C15)</f>
         <v>3858.01</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1571,23 +1569,23 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="C16" s="9">
         <v>4946</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="12">
         <f>SUM(C16:C17)</f>
         <v>4946</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1606,23 +1604,23 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="C18" s="9">
         <v>2521</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="12">
         <f>SUM(C18:C19)</f>
         <v>2521</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1641,7 +1639,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="15">
@@ -1664,14 +1662,14 @@
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="14">
@@ -1696,14 +1694,14 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="14">
         <v>441.39</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" s="12">
         <f>SUM(C24:C25)</f>

--- a/expense/汇总表.xlsx
+++ b/expense/汇总表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>总额</t>
   </si>
@@ -60,6 +60,9 @@
     <t>实验室</t>
   </si>
   <si>
+    <t>2024-09-20</t>
+  </si>
+  <si>
     <t>202428026658</t>
   </si>
   <si>
@@ -102,9 +105,15 @@
     <t>2024-08-26</t>
   </si>
   <si>
+    <t>202428030588</t>
+  </si>
+  <si>
     <t>./分区赛/[汇总表.xlsx]Sheet1'!I3</t>
   </si>
   <si>
+    <t>202428035495</t>
+  </si>
+  <si>
     <t>视觉组</t>
   </si>
   <si>
@@ -135,10 +144,25 @@
     <t>电磁组</t>
   </si>
   <si>
+    <t>2024-11-04</t>
+  </si>
+  <si>
+    <t>202428035562</t>
+  </si>
+  <si>
     <t>经费缺口</t>
   </si>
   <si>
     <t>国赛</t>
+  </si>
+  <si>
+    <t>2024-11-05</t>
+  </si>
+  <si>
+    <t>202428035617</t>
+  </si>
+  <si>
+    <t>所有人已确认收到</t>
   </si>
   <si>
     <t>分区赛</t>
@@ -152,10 +176,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -190,6 +214,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -199,14 +237,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,97 +336,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,180 +381,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -580,6 +604,73 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,21 +699,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -643,26 +719,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,99 +748,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -782,28 +858,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -812,26 +888,26 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -856,32 +932,44 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="41" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="41" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -892,7 +980,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -901,14 +992,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1283,8 +1368,8 @@
   <sheetPr/>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F7"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1313,10 +1398,10 @@
       </c>
     </row>
     <row r="2" spans="8:9">
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="21" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1333,16 +1418,16 @@
       <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="23" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1350,32 +1435,34 @@
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="C4" s="9">
         <v>3786.05</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="12">
+        <v>14</v>
+      </c>
+      <c r="E4" s="24">
         <f>SUM(C4:C5)</f>
         <v>3786.05</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>14</v>
+      <c r="F4" s="25" t="s">
+        <v>15</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26">
         <f>SUM(E4,E6,E8,E10,E14,E16,E18)+1046.86+1317.3</f>
         <v>27341.29</v>
       </c>
@@ -1384,27 +1471,27 @@
         <v>2658.71</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="22"/>
+      <c r="K5" s="27"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="8" t="s">
         <v>16</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="9">
         <v>2528.14</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="D6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="24">
         <f>SUM(C6:C7)</f>
         <v>2528.14</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>18</v>
+      <c r="F6" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1412,36 +1499,36 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="8" t="s">
         <v>20</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C8" s="9">
         <v>698</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="D8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="24">
         <f>SUM(C8:C9)</f>
         <v>698</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>18</v>
+      <c r="F8" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1449,36 +1536,36 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="8" t="s">
         <v>23</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="C10" s="9">
         <v>6639.93</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="12">
+      <c r="D10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="24">
         <f>SUM(C10:C11)</f>
         <v>6639.93</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>18</v>
+      <c r="F10" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1486,46 +1573,54 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="8" t="s">
         <v>26</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="C12" s="9">
         <v>4320.98</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12">
+      <c r="D12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="24">
         <f>SUM(C12:C13)</f>
         <v>4320.98</v>
       </c>
-      <c r="H12" s="21">
+      <c r="F12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="26">
         <v>441.39</v>
       </c>
-      <c r="I12" s="24" t="s">
-        <v>27</v>
+      <c r="I12" s="28" t="s">
+        <v>29</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="H13" s="21" t="e">
+      <c r="B13" s="13"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
+      <c r="H13" s="26" t="e">
         <f ca="1">EVALUATE(I12)</f>
         <v>#VALUE!</v>
       </c>
@@ -1534,189 +1629,210 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="C14" s="9">
         <f>[1]Sheet1!K80</f>
         <v>3858.01</v>
       </c>
-      <c r="D14" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="12">
+      <c r="D14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="24">
         <f>SUM(C14:C15)</f>
         <v>3858.01</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>18</v>
+      <c r="F14" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="20"/>
-      <c r="H15" s="21"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="9">
         <v>4946</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="12">
+      <c r="D16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="24">
         <f>SUM(C16:C17)</f>
         <v>4946</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>18</v>
+      <c r="F16" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="C18" s="9">
         <v>2521</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="12">
+      <c r="D18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="24">
         <f>SUM(C18:C19)</f>
         <v>2521</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>18</v>
+      <c r="F18" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="15">
+        <v>40</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="16">
         <v>8241.18</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12">
+      <c r="D20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="24">
         <f>SUM(C20:C21)</f>
         <v>8241.18</v>
       </c>
+      <c r="F20" s="25" t="s">
+        <v>19</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="14">
+        <v>44</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="18">
         <v>15201.68</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12">
+      <c r="D22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="24">
         <f>SUM(C22:C23)</f>
         <v>15201.68</v>
       </c>
-      <c r="H22" s="21">
+      <c r="F22" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="26">
         <f>SUM(C12,C20,C22,C24)-2658.71</f>
         <v>25546.52</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" s="7"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="25"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="14">
+        <v>48</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="18">
         <v>441.39</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="12">
+        <v>49</v>
+      </c>
+      <c r="E24" s="24">
         <f>SUM(C24:C25)</f>
         <v>441.39</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="7"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="47">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
@@ -1728,6 +1844,20 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E8:E9"/>
@@ -1743,9 +1873,13 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" display="2528.14"/>
